--- a/PrimaveraTaskPane-INO/PrimaveraTaskPane/bin/Debug/Book1.xlsx
+++ b/PrimaveraTaskPane-INO/PrimaveraTaskPane/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rbd9cd3f65ad94f45"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Ra2fd7c64b936462f"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="we0"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra0e09e8b1b4b45d8"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{dce54624-e365-4f54-8cb3-bda2f8a6d4e4}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{894d9456-5b6d-4b24-9c19-ab0079f251b2}">
   <we:reference id="a13a8c45-0d9f-477d-b9a5-809c1d218a04" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/PrimaveraTaskPane-INO/PrimaveraTaskPane/bin/Debug/Book1.xlsx
+++ b/PrimaveraTaskPane-INO/PrimaveraTaskPane/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Ra2fd7c64b936462f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rf985a0da15014974"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra0e09e8b1b4b45d8"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R162b816db3dd49b6"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{894d9456-5b6d-4b24-9c19-ab0079f251b2}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{2ed3757c-8bb3-4d67-8372-1dc842193818}">
   <we:reference id="a13a8c45-0d9f-477d-b9a5-809c1d218a04" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/PrimaveraTaskPane-INO/PrimaveraTaskPane/bin/Debug/Book1.xlsx
+++ b/PrimaveraTaskPane-INO/PrimaveraTaskPane/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rf985a0da15014974"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R9d6e7c480f984f32"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R162b816db3dd49b6"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5528a450c5bc47a1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{2ed3757c-8bb3-4d67-8372-1dc842193818}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{1535febe-ccba-428e-89af-831ed0af735b}">
   <we:reference id="a13a8c45-0d9f-477d-b9a5-809c1d218a04" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/PrimaveraTaskPane-INO/PrimaveraTaskPane/bin/Debug/Book1.xlsx
+++ b/PrimaveraTaskPane-INO/PrimaveraTaskPane/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R9d6e7c480f984f32"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R34b28a0229274a75"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5528a450c5bc47a1"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R173010b427f04fc3"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{1535febe-ccba-428e-89af-831ed0af735b}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{2413f32a-3d58-4d56-ae95-7a072b0b8d0b}">
   <we:reference id="a13a8c45-0d9f-477d-b9a5-809c1d218a04" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/PrimaveraTaskPane-INO/PrimaveraTaskPane/bin/Debug/Book1.xlsx
+++ b/PrimaveraTaskPane-INO/PrimaveraTaskPane/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R34b28a0229274a75"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R876fb6999955415f"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R173010b427f04fc3"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6f41d7ef07d84076"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{2413f32a-3d58-4d56-ae95-7a072b0b8d0b}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{a7820aba-3f24-4e05-b8b0-8633f6b0c069}">
   <we:reference id="a13a8c45-0d9f-477d-b9a5-809c1d218a04" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/PrimaveraTaskPane-INO/PrimaveraTaskPane/bin/Debug/Book1.xlsx
+++ b/PrimaveraTaskPane-INO/PrimaveraTaskPane/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R876fb6999955415f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R5b351d615a864c0b"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6f41d7ef07d84076"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3cafa479219a4b0c"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{a7820aba-3f24-4e05-b8b0-8633f6b0c069}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{2245c5b0-c7b8-4b64-90c6-2afafe04e2ae}">
   <we:reference id="a13a8c45-0d9f-477d-b9a5-809c1d218a04" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/PrimaveraTaskPane-INO/PrimaveraTaskPane/bin/Debug/Book1.xlsx
+++ b/PrimaveraTaskPane-INO/PrimaveraTaskPane/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R5b351d615a864c0b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R5199d09cea33482e"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3cafa479219a4b0c"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2e006f9fbbbc42c1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{2245c5b0-c7b8-4b64-90c6-2afafe04e2ae}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{e7b2ae7a-0699-4cfd-804d-ef7c120eb386}">
   <we:reference id="a13a8c45-0d9f-477d-b9a5-809c1d218a04" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/PrimaveraTaskPane-INO/PrimaveraTaskPane/bin/Debug/Book1.xlsx
+++ b/PrimaveraTaskPane-INO/PrimaveraTaskPane/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R5199d09cea33482e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R28baa906b40d4f22"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2e006f9fbbbc42c1"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6b9fd0c4cf394251"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{e7b2ae7a-0699-4cfd-804d-ef7c120eb386}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{061fb1a3-550d-4e8d-abc7-24a384ed0d68}">
   <we:reference id="a13a8c45-0d9f-477d-b9a5-809c1d218a04" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/PrimaveraTaskPane-INO/PrimaveraTaskPane/bin/Debug/Book1.xlsx
+++ b/PrimaveraTaskPane-INO/PrimaveraTaskPane/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R28baa906b40d4f22"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R961a11d2e60d4901"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6b9fd0c4cf394251"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R22670fdd197b4c82"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{061fb1a3-550d-4e8d-abc7-24a384ed0d68}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{e694c2eb-cfa4-4e87-8ab4-e0f47a8703d8}">
   <we:reference id="a13a8c45-0d9f-477d-b9a5-809c1d218a04" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/PrimaveraTaskPane-INO/PrimaveraTaskPane/bin/Debug/Book1.xlsx
+++ b/PrimaveraTaskPane-INO/PrimaveraTaskPane/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R961a11d2e60d4901"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R348b6b27f60e4025"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R22670fdd197b4c82"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb5d5477e94e642e9"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{e694c2eb-cfa4-4e87-8ab4-e0f47a8703d8}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{8102c6b5-e411-4d33-bdd4-a9136ccc1fcd}">
   <we:reference id="a13a8c45-0d9f-477d-b9a5-809c1d218a04" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>

--- a/PrimaveraTaskPane-INO/PrimaveraTaskPane/bin/Debug/Book1.xlsx
+++ b/PrimaveraTaskPane-INO/PrimaveraTaskPane/bin/Debug/Book1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R348b6b27f60e4025"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R4bf7c59137b844d4"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -10,13 +10,13 @@
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
   <wetp:taskpane dockstate="" visibility="1" width="350" row="1">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb5d5477e94e642e9"/>
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9bb352f0f93d4f06"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
 
 <file path=xl/webextensions/webextension.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{8102c6b5-e411-4d33-bdd4-a9136ccc1fcd}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{246ba480-c0e7-409f-9d06-6e35ad4336f6}">
   <we:reference id="a13a8c45-0d9f-477d-b9a5-809c1d218a04" version="1.0.0.0" store="developer" storeType="Registry"/>
   <we:alternateReferences/>
   <we:properties/>
